--- a/data/lossofsale_sg_perinthalmanna.xlsx
+++ b/data/lossofsale_sg_perinthalmanna.xlsx
@@ -209,7 +209,7 @@
     <col min="6" max="6" width="24.3" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
-    <col min="9" max="9" width="28.35" customWidth="1"/>
+    <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
@@ -284,16 +284,16 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Jamshad</t>
+          <t xml:space="preserve">Ashiq</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>8089456963</v>
+        <v>9656248085</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">Kurtha enquiries model not available in our store</t>
+          <t xml:space="preserve">black suite 3items already booked customer on dates</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">ameen</t>
+          <t xml:space="preserve">Murshid</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>7034888154</v>
+        <v>9020324268</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">family is not come</t>
+          <t xml:space="preserve">confirmation soon</t>
         </is>
       </c>
     </row>
@@ -390,48 +390,934 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C5">
+        <is>
+          <t xml:space="preserve">BASHEER</t>
+        </is>
+      </c>
+      <c r="D5" s="65">
+        <v>9961914473</v>
+      </c>
+      <c t="inlineStr" r="E5">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F5">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G5">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H5">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I5">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J5">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K5">
+        <is>
+          <t xml:space="preserve">FULL BLACK  EBROIDERY WORK .NOT AVAILABLE CURRENT PRODUCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c t="inlineStr" r="B6">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C6">
+        <is>
+          <t xml:space="preserve">SREERAJ</t>
+        </is>
+      </c>
+      <c r="D6" s="65">
+        <v>3538943728</v>
+      </c>
+      <c t="inlineStr" r="E6">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F6">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G6">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H6">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I6">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J6">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">FARIS</t>
+        </is>
+      </c>
+      <c r="D7" s="65">
+        <v>9526804086</v>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">CONFIRNATION SOON</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">abijith</t>
+        </is>
+      </c>
+      <c r="D8" s="65">
+        <v>8562736392</v>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">size note available</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">Shahanoob</t>
+        </is>
+      </c>
+      <c r="D9" s="65">
+        <v>8136932620</v>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">just trialed model not available in our store</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">Sajad</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>9645051123</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C5">
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">simple indie western normal work</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">SAJIV</t>
+        </is>
+      </c>
+      <c r="D11" s="65">
+        <v>8606851245</v>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">BLACK GOLD  WORK NOT  AVAILABILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">noifal</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>9746544402</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">kutha enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">SHARATH</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>9995736699</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">26-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">REVISIT WHITH FAMILY</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">aslam</t>
+        </is>
+      </c>
+      <c r="D14" s="65">
+        <v>9188910027</v>
+      </c>
+      <c t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">family note come</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">Kifli</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>9745130134</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">siddiq</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>8129199845</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">RANEESH</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>7902667814</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">ULTRA WHITE ALMOST OK CONFIRMATION IN ONE HOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">Nithin</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>8086760651</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">Bandgala Black Double side Gold Embrodary</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">SIDHIQ</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>8921319110</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">ABDUL ADIL T P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">CONFIRMASHION  SOON</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">Jamshad</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>8089456963</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">Kurtha enquiries model not available in our store</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">ameen</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>7034888154</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">family is not come</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
         <is>
           <t xml:space="preserve">Nisam</t>
         </is>
       </c>
-      <c r="D5" s="65">
+      <c r="D22" s="65">
         <v>8137814048</v>
       </c>
-      <c t="inlineStr" r="E5">
+      <c t="inlineStr" r="E22">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F5">
+      <c t="inlineStr" r="F22">
         <is>
           <t xml:space="preserve">MOHAMMED SANJU K</t>
         </is>
       </c>
-      <c t="inlineStr" r="G5">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H5">
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
         <is>
           <t xml:space="preserve">PRICING</t>
         </is>
       </c>
-      <c t="inlineStr" r="I5">
+      <c t="inlineStr" r="I22">
         <is>
           <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
-      <c t="inlineStr" r="J5">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K5">
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
         <is>
           <t xml:space="preserve">White red print almost ok</t>
         </is>

--- a/data/lossofsale_sg_perinthalmanna.xlsx
+++ b/data/lossofsale_sg_perinthalmanna.xlsx
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Ashiq</t>
+          <t xml:space="preserve">shibin</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9656248085</v>
+        <v>9446879021</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">ABDUL ADIL T P</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">black suite 3items already booked customer on dates</t>
+          <t xml:space="preserve">customer family not approving</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
+          <t xml:space="preserve">10-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C4">
+        <is>
+          <t xml:space="preserve">mujeeb</t>
+        </is>
+      </c>
+      <c r="D4" s="65">
+        <v>9037176208</v>
+      </c>
+      <c t="inlineStr" r="E4">
+        <is>
           <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C4">
-        <is>
-          <t xml:space="preserve">Murshid</t>
-        </is>
-      </c>
-      <c r="D4" s="65">
-        <v>9020324268</v>
-      </c>
-      <c t="inlineStr" r="E4">
-        <is>
-          <t xml:space="preserve">25-12-2025</t>
-        </is>
-      </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">JASIMSHA K.H</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">confirmation soon</t>
+          <t xml:space="preserve">black silver embro is not available it is all ready booked</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">BASHEER</t>
+          <t xml:space="preserve">SABITH</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>9961914473</v>
+        <v>6282445631</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">JASIMSHA K.H</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -423,7 +423,7 @@
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">FULL BLACK  EBROIDERY WORK .NOT AVAILABLE CURRENT PRODUCT</t>
+          <t xml:space="preserve">BLACK GOLD WORK</t>
         </is>
       </c>
     </row>
@@ -443,16 +443,16 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">SREERAJ</t>
+          <t xml:space="preserve">BABU</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>3538943728</v>
+        <v>9747643708</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
@@ -461,7 +461,7 @@
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -476,12 +476,17 @@
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K6">
+        <is>
+          <t xml:space="preserve">46 ABOVE</t>
         </is>
       </c>
     </row>
@@ -491,25 +496,25 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">FARIS</t>
+          <t xml:space="preserve">Mushthaq</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>9526804086</v>
+        <v>964502877</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -519,12 +524,12 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -534,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">CONFIRNATION SOON</t>
+          <t xml:space="preserve">confirmation in 2 days</t>
         </is>
       </c>
     </row>
@@ -544,25 +549,25 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">abijith</t>
+          <t xml:space="preserve">rashad</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>8562736392</v>
+        <v>7907140270</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -572,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -587,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">size note available</t>
+          <t xml:space="preserve">black suits</t>
         </is>
       </c>
     </row>
@@ -597,25 +602,25 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">Shahanoob</t>
+          <t xml:space="preserve">ABASS</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>8136932620</v>
+        <v>9961641305</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">JASIMSHA K.H</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
@@ -625,12 +630,12 @@
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -640,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">just trialed model not available in our store</t>
+          <t xml:space="preserve">ENQUIR FOR KURTHA ORU COLLECTION IS NOT OKEY</t>
         </is>
       </c>
     </row>
@@ -650,25 +655,25 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">Sajad</t>
+          <t xml:space="preserve">rishad</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>9645051123</v>
+        <v>9562834208</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">24-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G10">
@@ -678,12 +683,12 @@
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -693,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">simple indie western normal work</t>
+          <t xml:space="preserve">WILL COME</t>
         </is>
       </c>
     </row>
@@ -703,25 +708,25 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">SAJIV</t>
+          <t xml:space="preserve">Ashiq</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>8606851245</v>
+        <v>9656248085</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -736,7 +741,7 @@
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -746,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">BLACK GOLD  WORK NOT  AVAILABILE</t>
+          <t xml:space="preserve">black suite 3items already booked customer on dates</t>
         </is>
       </c>
     </row>
@@ -756,25 +761,25 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">noifal</t>
+          <t xml:space="preserve">Murshid</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>9746544402</v>
+        <v>9020324268</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -784,12 +789,12 @@
       </c>
       <c t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J12">
@@ -799,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">kutha enquiry</t>
+          <t xml:space="preserve">confirmation soon</t>
         </is>
       </c>
     </row>
@@ -809,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">SHARATH</t>
+          <t xml:space="preserve">BASHEER</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>9995736699</v>
+        <v>9961914473</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">26-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">JASIMSHA K.H</t>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -837,12 +842,12 @@
       </c>
       <c t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J13">
@@ -852,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">REVISIT WHITH FAMILY</t>
+          <t xml:space="preserve">FULL BLACK  EBROIDERY WORK .NOT AVAILABLE CURRENT PRODUCT</t>
         </is>
       </c>
     </row>
@@ -862,25 +867,25 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">aslam</t>
+          <t xml:space="preserve">SREERAJ</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>9188910027</v>
+        <v>3538943728</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -890,22 +895,17 @@
       </c>
       <c t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K14">
-        <is>
-          <t xml:space="preserve">family note come</t>
         </is>
       </c>
     </row>
@@ -915,25 +915,25 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">Kifli</t>
+          <t xml:space="preserve">FARIS</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>9745130134</v>
+        <v>9526804086</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">MOHAMMED SANJU K</t>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -943,17 +943,22 @@
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J15">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">CONFIRNATION SOON</t>
         </is>
       </c>
     </row>
@@ -963,16 +968,16 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">siddiq</t>
+          <t xml:space="preserve">abijith</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>8129199845</v>
+        <v>8562736392</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
@@ -981,7 +986,7 @@
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">MOHAMMED SANJU K</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -991,17 +996,22 @@
       </c>
       <c t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">size note available</t>
         </is>
       </c>
     </row>
@@ -1011,25 +1021,25 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">RANEESH</t>
+          <t xml:space="preserve">Shahanoob</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>7902667814</v>
+        <v>8136932620</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
@@ -1039,12 +1049,12 @@
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1054,7 +1064,7 @@
       </c>
       <c t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">ULTRA WHITE ALMOST OK CONFIRMATION IN ONE HOUR</t>
+          <t xml:space="preserve">just trialed model not available in our store</t>
         </is>
       </c>
     </row>
@@ -1064,25 +1074,25 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">Nithin</t>
+          <t xml:space="preserve">Sajad</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>8086760651</v>
+        <v>9645051123</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G18">
@@ -1092,12 +1102,12 @@
       </c>
       <c t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J18">
@@ -1107,7 +1117,7 @@
       </c>
       <c t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">Bandgala Black Double side Gold Embrodary</t>
+          <t xml:space="preserve">simple indie western normal work</t>
         </is>
       </c>
     </row>
@@ -1117,25 +1127,25 @@
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">SIDHIQ</t>
+          <t xml:space="preserve">SAJIV</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>8921319110</v>
+        <v>8606851245</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">ABDUL ADIL T P</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1145,12 +1155,12 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J19">
@@ -1160,7 +1170,7 @@
       </c>
       <c t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">CONFIRMASHION  SOON</t>
+          <t xml:space="preserve">BLACK GOLD  WORK NOT  AVAILABILE</t>
         </is>
       </c>
     </row>
@@ -1170,25 +1180,25 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">Jamshad</t>
+          <t xml:space="preserve">noifal</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>8089456963</v>
+        <v>9746544402</v>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1198,12 +1208,12 @@
       </c>
       <c t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J20">
@@ -1213,7 +1223,7 @@
       </c>
       <c t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">Kurtha enquiries model not available in our store</t>
+          <t xml:space="preserve">kutha enquiry</t>
         </is>
       </c>
     </row>
@@ -1223,25 +1233,25 @@
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">ameen</t>
+          <t xml:space="preserve">SHARATH</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>7034888154</v>
+        <v>9995736699</v>
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">JASIMSHA K.H</t>
         </is>
       </c>
       <c t="inlineStr" r="G21">
@@ -1251,12 +1261,12 @@
       </c>
       <c t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J21">
@@ -1266,7 +1276,7 @@
       </c>
       <c t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">family is not come</t>
+          <t xml:space="preserve">REVISIT WHITH FAMILY</t>
         </is>
       </c>
     </row>
@@ -1276,50 +1286,1100 @@
       </c>
       <c t="inlineStr" r="B22">
         <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">aslam</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>9188910027</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">family note come</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">Kifli</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>9745130134</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">siddiq</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>8129199845</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">RANEESH</t>
+        </is>
+      </c>
+      <c r="D25" s="65">
+        <v>7902667814</v>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">ULTRA WHITE ALMOST OK CONFIRMATION IN ONE HOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">Nithin</t>
+        </is>
+      </c>
+      <c r="D26" s="65">
+        <v>8086760651</v>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">Bandgala Black Double side Gold Embrodary</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">SIDHIQ</t>
+        </is>
+      </c>
+      <c r="D27" s="65">
+        <v>8921319110</v>
+      </c>
+      <c t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">ABDUL ADIL T P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J27">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve">CONFIRMASHION  SOON</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C22">
+      <c t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">Jamshad</t>
+        </is>
+      </c>
+      <c r="D28" s="65">
+        <v>8089456963</v>
+      </c>
+      <c t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">Kurtha enquiries model not available in our store</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">ameen</t>
+        </is>
+      </c>
+      <c r="D29" s="65">
+        <v>7034888154</v>
+      </c>
+      <c t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F29">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I29">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve">family is not come</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C30">
         <is>
           <t xml:space="preserve">Nisam</t>
         </is>
       </c>
-      <c r="D22" s="65">
+      <c r="D30" s="65">
         <v>8137814048</v>
       </c>
-      <c t="inlineStr" r="E22">
+      <c t="inlineStr" r="E30">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F22">
+      <c t="inlineStr" r="F30">
         <is>
           <t xml:space="preserve">MOHAMMED SANJU K</t>
         </is>
       </c>
-      <c t="inlineStr" r="G22">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H22">
+      <c t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H30">
         <is>
           <t xml:space="preserve">PRICING</t>
         </is>
       </c>
-      <c t="inlineStr" r="I22">
+      <c t="inlineStr" r="I30">
         <is>
           <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
-      <c t="inlineStr" r="J22">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K22">
+      <c t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K30">
         <is>
           <t xml:space="preserve">White red print almost ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">Fahad</t>
+        </is>
+      </c>
+      <c r="D31" s="65">
+        <v>9645959360</v>
+      </c>
+      <c t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">price to high customer not willing</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">Murshid</t>
+        </is>
+      </c>
+      <c r="D32" s="65">
+        <v>9526943489</v>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">confirmation soon</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">farsin</t>
+        </is>
+      </c>
+      <c r="D33" s="65">
+        <v>9605046959</v>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">Prm Black Open Bg (confirmation Soon)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">afsal</t>
+        </is>
+      </c>
+      <c r="D34" s="65">
+        <v>9846210481</v>
+      </c>
+      <c t="inlineStr" r="E34">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">price issue</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">Test</t>
+        </is>
+      </c>
+      <c r="D35" s="65">
+        <v>900000000</v>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">Golden embro 3ps suit, 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">Musthafa</t>
+        </is>
+      </c>
+      <c r="D36" s="65">
+        <v>9745189634</v>
+      </c>
+      <c t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">white bengals already booked costumer on date</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">Aslam</t>
+        </is>
+      </c>
+      <c r="D37" s="65">
+        <v>9947638500</v>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">black suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">habeeb</t>
+        </is>
+      </c>
+      <c r="D38" s="65">
+        <v>9446131229</v>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">ABDUL ADIL T P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">will book later. after confirmation with the family</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="65">
+        <v>37</v>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">Jaseem</t>
+        </is>
+      </c>
+      <c r="D39" s="65">
+        <v>9846622459</v>
+      </c>
+      <c t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G39">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K39">
+        <is>
+          <t xml:space="preserve">prm black ultra lx I/w</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="65">
+        <v>38</v>
+      </c>
+      <c t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve">Midilag</t>
+        </is>
+      </c>
+      <c r="D40" s="65">
+        <v>6238979807</v>
+      </c>
+      <c t="inlineStr" r="E40">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G40">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I40">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J40">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K40">
+        <is>
+          <t xml:space="preserve">size is not okey</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="65">
+        <v>39</v>
+      </c>
+      <c t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">SHIHAB</t>
+        </is>
+      </c>
+      <c r="D41" s="65">
+        <v>9746525524</v>
+      </c>
+      <c t="inlineStr" r="E41">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F41">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G41">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H41">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I41">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J41">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K41">
+        <is>
+          <t xml:space="preserve">SIZE 46 SUIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="65">
+        <v>40</v>
+      </c>
+      <c t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">shabir</t>
+        </is>
+      </c>
+      <c r="D42" s="65">
+        <v>9747513404</v>
+      </c>
+      <c t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G42">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J42">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve">WILL COME</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_perinthalmanna.xlsx
+++ b/data/lossofsale_sg_perinthalmanna.xlsx
@@ -203,7 +203,7 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.55" customWidth="1"/>
+    <col min="3" max="3" width="21.6" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
     <col min="6" max="6" width="24.3" customWidth="1"/>
@@ -766,20 +766,20 @@
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">Murshid</t>
+          <t xml:space="preserve">Arjun</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>9020324268</v>
+        <v>8921025726</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -789,12 +789,12 @@
       </c>
       <c t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J12">
@@ -804,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">confirmation soon</t>
+          <t xml:space="preserve">46 size need</t>
         </is>
       </c>
     </row>
@@ -819,11 +819,11 @@
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">BASHEER</t>
+          <t xml:space="preserve">Murshid</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>9961914473</v>
+        <v>9020324268</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
@@ -832,7 +832,7 @@
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -842,12 +842,12 @@
       </c>
       <c t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J13">
@@ -857,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">FULL BLACK  EBROIDERY WORK .NOT AVAILABLE CURRENT PRODUCT</t>
+          <t xml:space="preserve">confirmation soon</t>
         </is>
       </c>
     </row>
@@ -872,20 +872,20 @@
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">SREERAJ</t>
+          <t xml:space="preserve">BASHEER</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>3538943728</v>
+        <v>9961914473</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -895,17 +895,22 @@
       </c>
       <c t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J14">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">FULL BLACK  EBROIDERY WORK .NOT AVAILABLE CURRENT PRODUCT</t>
         </is>
       </c>
     </row>
@@ -920,11 +925,11 @@
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">FARIS</t>
+          <t xml:space="preserve">SREERAJ</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>9526804086</v>
+        <v>3538943728</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
@@ -933,7 +938,7 @@
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -943,22 +948,17 @@
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J15">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K15">
-        <is>
-          <t xml:space="preserve">CONFIRNATION SOON</t>
         </is>
       </c>
     </row>
@@ -968,25 +968,25 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">FARIS</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>9526804086</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
           <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C16">
-        <is>
-          <t xml:space="preserve">abijith</t>
-        </is>
-      </c>
-      <c r="D16" s="65">
-        <v>8562736392</v>
-      </c>
-      <c t="inlineStr" r="E16">
-        <is>
-          <t xml:space="preserve">28-12-2025</t>
-        </is>
-      </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -996,12 +996,12 @@
       </c>
       <c t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
@@ -1011,7 +1011,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">size note available</t>
+          <t xml:space="preserve">CONFIRNATION SOON</t>
         </is>
       </c>
     </row>
@@ -1026,20 +1026,20 @@
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">Shahanoob</t>
+          <t xml:space="preserve">abijith</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>8136932620</v>
+        <v>8562736392</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
@@ -1049,12 +1049,12 @@
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1064,7 +1064,7 @@
       </c>
       <c t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">just trialed model not available in our store</t>
+          <t xml:space="preserve">size note available</t>
         </is>
       </c>
     </row>
@@ -1079,15 +1079,15 @@
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">Sajad</t>
+          <t xml:space="preserve">Shahanoob</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>9645051123</v>
+        <v>8136932620</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
@@ -1107,7 +1107,7 @@
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J18">
@@ -1117,7 +1117,7 @@
       </c>
       <c t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">simple indie western normal work</t>
+          <t xml:space="preserve">just trialed model not available in our store</t>
         </is>
       </c>
     </row>
@@ -1132,20 +1132,20 @@
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">SAJIV</t>
+          <t xml:space="preserve">ARUN</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>8606851245</v>
+        <v>6901255023</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">25-04-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1155,12 +1155,12 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J19">
@@ -1170,7 +1170,7 @@
       </c>
       <c t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">BLACK GOLD  WORK NOT  AVAILABILE</t>
+          <t xml:space="preserve">with in two days visit showroom</t>
         </is>
       </c>
     </row>
@@ -1185,20 +1185,20 @@
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">noifal</t>
+          <t xml:space="preserve">Sajad</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>9746544402</v>
+        <v>9645051123</v>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1208,12 +1208,12 @@
       </c>
       <c t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J20">
@@ -1223,7 +1223,7 @@
       </c>
       <c t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">kutha enquiry</t>
+          <t xml:space="preserve">simple indie western normal work</t>
         </is>
       </c>
     </row>
@@ -1238,20 +1238,20 @@
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">SHARATH</t>
+          <t xml:space="preserve">SAJIV</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>9995736699</v>
+        <v>8606851245</v>
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">26-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">JASIMSHA K.H</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G21">
@@ -1261,12 +1261,12 @@
       </c>
       <c t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J21">
@@ -1276,7 +1276,7 @@
       </c>
       <c t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">REVISIT WHITH FAMILY</t>
+          <t xml:space="preserve">BLACK GOLD  WORK NOT  AVAILABILE</t>
         </is>
       </c>
     </row>
@@ -1286,20 +1286,20 @@
       </c>
       <c t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">aslam</t>
+          <t xml:space="preserve">noifal</t>
         </is>
       </c>
       <c r="D22" s="65">
-        <v>9188910027</v>
+        <v>9746544402</v>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F22">
@@ -1314,12 +1314,12 @@
       </c>
       <c t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J22">
@@ -1329,7 +1329,7 @@
       </c>
       <c t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">family note come</t>
+          <t xml:space="preserve">kutha enquiry</t>
         </is>
       </c>
     </row>
@@ -1339,25 +1339,25 @@
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">Kifli</t>
+          <t xml:space="preserve">SHARATH</t>
         </is>
       </c>
       <c r="D23" s="65">
-        <v>9745130134</v>
+        <v>9995736699</v>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">MOHAMMED SANJU K</t>
+          <t xml:space="preserve">JASIMSHA K.H</t>
         </is>
       </c>
       <c t="inlineStr" r="G23">
@@ -1367,17 +1367,22 @@
       </c>
       <c t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J23">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">REVISIT WHITH FAMILY</t>
         </is>
       </c>
     </row>
@@ -1392,20 +1397,20 @@
       </c>
       <c t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">siddiq</t>
+          <t xml:space="preserve">aslam</t>
         </is>
       </c>
       <c r="D24" s="65">
-        <v>8129199845</v>
+        <v>9188910027</v>
       </c>
       <c t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F24">
         <is>
-          <t xml:space="preserve">MOHAMMED SANJU K</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G24">
@@ -1420,12 +1425,17 @@
       </c>
       <c t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">-</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J24">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">family note come</t>
         </is>
       </c>
     </row>
@@ -1435,25 +1445,25 @@
       </c>
       <c t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C25">
         <is>
-          <t xml:space="preserve">RANEESH</t>
+          <t xml:space="preserve">Kifli</t>
         </is>
       </c>
       <c r="D25" s="65">
-        <v>7902667814</v>
+        <v>9745130134</v>
       </c>
       <c t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F25">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
         </is>
       </c>
       <c t="inlineStr" r="G25">
@@ -1463,22 +1473,17 @@
       </c>
       <c t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="J25">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K25">
-        <is>
-          <t xml:space="preserve">ULTRA WHITE ALMOST OK CONFIRMATION IN ONE HOUR</t>
         </is>
       </c>
     </row>
@@ -1488,25 +1493,25 @@
       </c>
       <c t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">Nithin</t>
+          <t xml:space="preserve">siddiq</t>
         </is>
       </c>
       <c r="D26" s="65">
-        <v>8086760651</v>
+        <v>8129199845</v>
       </c>
       <c t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F26">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
         </is>
       </c>
       <c t="inlineStr" r="G26">
@@ -1516,22 +1521,17 @@
       </c>
       <c t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">-</t>
         </is>
       </c>
       <c t="inlineStr" r="J26">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K26">
-        <is>
-          <t xml:space="preserve">Bandgala Black Double side Gold Embrodary</t>
         </is>
       </c>
     </row>
@@ -1541,25 +1541,25 @@
       </c>
       <c t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">SIDHIQ</t>
+          <t xml:space="preserve">Akash</t>
         </is>
       </c>
       <c r="D27" s="65">
-        <v>8921319110</v>
+        <v>123456789</v>
       </c>
       <c t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">02-12-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F27">
         <is>
-          <t xml:space="preserve">ABDUL ADIL T P</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G27">
@@ -1569,12 +1569,12 @@
       </c>
       <c t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J27">
@@ -1584,7 +1584,7 @@
       </c>
       <c t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">CONFIRMASHION  SOON</t>
+          <t xml:space="preserve">need 58 size customer not interested to give number</t>
         </is>
       </c>
     </row>
@@ -1594,25 +1594,25 @@
       </c>
       <c t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">Jamshad</t>
+          <t xml:space="preserve">ajay</t>
         </is>
       </c>
       <c r="D28" s="65">
-        <v>8089456963</v>
+        <v>9496253497</v>
       </c>
       <c t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">09-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G28">
@@ -1622,12 +1622,12 @@
       </c>
       <c t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J28">
@@ -1637,7 +1637,7 @@
       </c>
       <c t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">Kurtha enquiries model not available in our store</t>
+          <t xml:space="preserve">46 size not available</t>
         </is>
       </c>
     </row>
@@ -1647,25 +1647,25 @@
       </c>
       <c t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">ameen</t>
+          <t xml:space="preserve">aswim</t>
         </is>
       </c>
       <c r="D29" s="65">
-        <v>7034888154</v>
+        <v>1111111111</v>
       </c>
       <c t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G29">
@@ -1675,12 +1675,12 @@
       </c>
       <c t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J29">
@@ -1690,7 +1690,7 @@
       </c>
       <c t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">family is not come</t>
+          <t xml:space="preserve">32 size</t>
         </is>
       </c>
     </row>
@@ -1700,25 +1700,25 @@
       </c>
       <c t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">Nisam</t>
+          <t xml:space="preserve">pink suit normal</t>
         </is>
       </c>
       <c r="D30" s="65">
-        <v>8137814048</v>
+        <v>8891895652</v>
       </c>
       <c t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">22-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">MOHAMMED SANJU K</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G30">
@@ -1728,12 +1728,12 @@
       </c>
       <c t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J30">
@@ -1743,7 +1743,7 @@
       </c>
       <c t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">White red print almost ok</t>
+          <t xml:space="preserve">WILL VISIT STORE TOMORROW</t>
         </is>
       </c>
     </row>
@@ -1753,25 +1753,25 @@
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C31">
         <is>
-          <t xml:space="preserve">Fahad</t>
+          <t xml:space="preserve">RANEESH</t>
         </is>
       </c>
       <c r="D31" s="65">
-        <v>9645959360</v>
+        <v>7902667814</v>
       </c>
       <c t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F31">
         <is>
-          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G31">
@@ -1781,12 +1781,12 @@
       </c>
       <c t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J31">
@@ -1796,7 +1796,7 @@
       </c>
       <c t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">price to high customer not willing</t>
+          <t xml:space="preserve">ULTRA WHITE ALMOST OK CONFIRMATION IN ONE HOUR</t>
         </is>
       </c>
     </row>
@@ -1806,16 +1806,16 @@
       </c>
       <c t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">Murshid</t>
+          <t xml:space="preserve">rashid</t>
         </is>
       </c>
       <c r="D32" s="65">
-        <v>9526943489</v>
+        <v>9744315737</v>
       </c>
       <c t="inlineStr" r="E32">
         <is>
@@ -1824,7 +1824,7 @@
       </c>
       <c t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G32">
@@ -1834,12 +1834,12 @@
       </c>
       <c t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J32">
@@ -1849,7 +1849,7 @@
       </c>
       <c t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">confirmation soon</t>
+          <t xml:space="preserve">will come jan 1</t>
         </is>
       </c>
     </row>
@@ -1859,20 +1859,20 @@
       </c>
       <c t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">farsin</t>
+          <t xml:space="preserve">Nithin</t>
         </is>
       </c>
       <c r="D33" s="65">
-        <v>9605046959</v>
+        <v>8086760651</v>
       </c>
       <c t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F33">
@@ -1892,7 +1892,7 @@
       </c>
       <c t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J33">
@@ -1902,7 +1902,7 @@
       </c>
       <c t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">Prm Black Open Bg (confirmation Soon)</t>
+          <t xml:space="preserve">Bandgala Black Double side Gold Embrodary</t>
         </is>
       </c>
     </row>
@@ -1912,16 +1912,16 @@
       </c>
       <c t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C34">
         <is>
-          <t xml:space="preserve">afsal</t>
+          <t xml:space="preserve">SIDHIQ</t>
         </is>
       </c>
       <c r="D34" s="65">
-        <v>9846210481</v>
+        <v>8921319110</v>
       </c>
       <c t="inlineStr" r="E34">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">Salmanul Faris V K</t>
+          <t xml:space="preserve">ABDUL ADIL T P</t>
         </is>
       </c>
       <c t="inlineStr" r="G34">
@@ -1945,7 +1945,7 @@
       </c>
       <c t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J34">
@@ -1955,7 +1955,7 @@
       </c>
       <c t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">price issue</t>
+          <t xml:space="preserve">CONFIRMASHION  SOON</t>
         </is>
       </c>
     </row>
@@ -1965,25 +1965,25 @@
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">Test</t>
+          <t xml:space="preserve">salma</t>
         </is>
       </c>
       <c r="D35" s="65">
-        <v>900000000</v>
+        <v>8086676767</v>
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">21-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F35">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G35">
@@ -1998,7 +1998,7 @@
       </c>
       <c t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J35">
@@ -2008,7 +2008,7 @@
       </c>
       <c t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">Golden embro 3ps suit, 38</t>
+          <t xml:space="preserve">KURTHA</t>
         </is>
       </c>
     </row>
@@ -2018,20 +2018,20 @@
       </c>
       <c t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">Musthafa</t>
+          <t xml:space="preserve">Jamshad</t>
         </is>
       </c>
       <c r="D36" s="65">
-        <v>9745189634</v>
+        <v>8089456963</v>
       </c>
       <c t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F36">
@@ -2046,12 +2046,12 @@
       </c>
       <c t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J36">
@@ -2061,7 +2061,7 @@
       </c>
       <c t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">white bengals already booked costumer on date</t>
+          <t xml:space="preserve">Kurtha enquiries model not available in our store</t>
         </is>
       </c>
     </row>
@@ -2071,25 +2071,25 @@
       </c>
       <c t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">Aslam</t>
+          <t xml:space="preserve">ameen</t>
         </is>
       </c>
       <c r="D37" s="65">
-        <v>9947638500</v>
+        <v>7034888154</v>
       </c>
       <c t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">11-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F37">
         <is>
-          <t xml:space="preserve">MOHAMMED SANJU K</t>
+          <t xml:space="preserve">Salmanul Faris V K</t>
         </is>
       </c>
       <c t="inlineStr" r="G37">
@@ -2099,12 +2099,12 @@
       </c>
       <c t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J37">
@@ -2114,7 +2114,7 @@
       </c>
       <c t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">black suit</t>
+          <t xml:space="preserve">family is not come</t>
         </is>
       </c>
     </row>
@@ -2124,25 +2124,25 @@
       </c>
       <c t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">habeeb</t>
+          <t xml:space="preserve">joyal</t>
         </is>
       </c>
       <c r="D38" s="65">
-        <v>9446131229</v>
+        <v>7736692907</v>
       </c>
       <c t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F38">
         <is>
-          <t xml:space="preserve">ABDUL ADIL T P</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G38">
@@ -2152,12 +2152,12 @@
       </c>
       <c t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J38">
@@ -2167,7 +2167,7 @@
       </c>
       <c t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">will book later. after confirmation with the family</t>
+          <t xml:space="preserve">46 in suits</t>
         </is>
       </c>
     </row>
@@ -2177,25 +2177,25 @@
       </c>
       <c t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C39">
         <is>
-          <t xml:space="preserve">Jaseem</t>
+          <t xml:space="preserve">Akshay</t>
         </is>
       </c>
       <c r="D39" s="65">
-        <v>9846622459</v>
+        <v>1234567899</v>
       </c>
       <c t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F39">
         <is>
-          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G39">
@@ -2205,12 +2205,12 @@
       </c>
       <c t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J39">
@@ -2220,7 +2220,7 @@
       </c>
       <c t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">prm black ultra lx I/w</t>
+          <t xml:space="preserve">size and color not available on customer date</t>
         </is>
       </c>
     </row>
@@ -2230,25 +2230,25 @@
       </c>
       <c t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C40">
         <is>
-          <t xml:space="preserve">Midilag</t>
+          <t xml:space="preserve">Nisam</t>
         </is>
       </c>
       <c r="D40" s="65">
-        <v>6238979807</v>
+        <v>8137814048</v>
       </c>
       <c t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">24-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F40">
         <is>
-          <t xml:space="preserve">JASIMSHA K.H</t>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
         </is>
       </c>
       <c t="inlineStr" r="G40">
@@ -2258,12 +2258,12 @@
       </c>
       <c t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J40">
@@ -2273,7 +2273,7 @@
       </c>
       <c t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">size is not okey</t>
+          <t xml:space="preserve">White red print almost ok</t>
         </is>
       </c>
     </row>
@@ -2283,25 +2283,25 @@
       </c>
       <c t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C41">
         <is>
-          <t xml:space="preserve">SHIHAB</t>
+          <t xml:space="preserve">Fahad</t>
         </is>
       </c>
       <c r="D41" s="65">
-        <v>9746525524</v>
+        <v>9645959360</v>
       </c>
       <c t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F41">
         <is>
-          <t xml:space="preserve">JASIMSHA K.H</t>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
       <c t="inlineStr" r="G41">
@@ -2311,12 +2311,12 @@
       </c>
       <c t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J41">
@@ -2326,7 +2326,7 @@
       </c>
       <c t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">SIZE 46 SUIT</t>
+          <t xml:space="preserve">price to high customer not willing</t>
         </is>
       </c>
     </row>
@@ -2336,50 +2336,1426 @@
       </c>
       <c t="inlineStr" r="B42">
         <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">Murshid</t>
+        </is>
+      </c>
+      <c r="D42" s="65">
+        <v>9526943489</v>
+      </c>
+      <c t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G42">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J42">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve">confirmation soon</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="65">
+        <v>41</v>
+      </c>
+      <c t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C43">
+        <is>
+          <t xml:space="preserve">farsin</t>
+        </is>
+      </c>
+      <c r="D43" s="65">
+        <v>9605046959</v>
+      </c>
+      <c t="inlineStr" r="E43">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F43">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G43">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H43">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J43">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K43">
+        <is>
+          <t xml:space="preserve">Prm Black Open Bg (confirmation Soon)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="65">
+        <v>42</v>
+      </c>
+      <c t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C44">
+        <is>
+          <t xml:space="preserve">afsal</t>
+        </is>
+      </c>
+      <c r="D44" s="65">
+        <v>9846210481</v>
+      </c>
+      <c t="inlineStr" r="E44">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F44">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G44">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H44">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I44">
+        <is>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K44">
+        <is>
+          <t xml:space="preserve">price issue</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="65">
+        <v>43</v>
+      </c>
+      <c t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C45">
+        <is>
+          <t xml:space="preserve">Test</t>
+        </is>
+      </c>
+      <c r="D45" s="65">
+        <v>900000000</v>
+      </c>
+      <c t="inlineStr" r="E45">
+        <is>
           <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C42">
+      <c t="inlineStr" r="F45">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G45">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H45">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J45">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K45">
+        <is>
+          <t xml:space="preserve">Golden embro 3ps suit, 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="65">
+        <v>44</v>
+      </c>
+      <c t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C46">
+        <is>
+          <t xml:space="preserve">Musthafa</t>
+        </is>
+      </c>
+      <c r="D46" s="65">
+        <v>9745189634</v>
+      </c>
+      <c t="inlineStr" r="E46">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve">NIYAS BINU NASAR K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G46">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H46">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I46">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J46">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K46">
+        <is>
+          <t xml:space="preserve">white bengals already booked costumer on date</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="65">
+        <v>45</v>
+      </c>
+      <c t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C47">
+        <is>
+          <t xml:space="preserve">Aslam</t>
+        </is>
+      </c>
+      <c r="D47" s="65">
+        <v>9947638500</v>
+      </c>
+      <c t="inlineStr" r="E47">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F47">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G47">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H47">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J47">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K47">
+        <is>
+          <t xml:space="preserve">black suit</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="65">
+        <v>46</v>
+      </c>
+      <c t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">habeeb</t>
+        </is>
+      </c>
+      <c r="D48" s="65">
+        <v>9446131229</v>
+      </c>
+      <c t="inlineStr" r="E48">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F48">
+        <is>
+          <t xml:space="preserve">ABDUL ADIL T P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G48">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H48">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J48">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K48">
+        <is>
+          <t xml:space="preserve">will book later. after confirmation with the family</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="65">
+        <v>47</v>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C49">
+        <is>
+          <t xml:space="preserve">Jaseem</t>
+        </is>
+      </c>
+      <c r="D49" s="65">
+        <v>9846622459</v>
+      </c>
+      <c t="inlineStr" r="E49">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G49">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H49">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I49">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J49">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K49">
+        <is>
+          <t xml:space="preserve">prm black ultra lx I/w</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="65">
+        <v>48</v>
+      </c>
+      <c t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C50">
+        <is>
+          <t xml:space="preserve">Midilag</t>
+        </is>
+      </c>
+      <c r="D50" s="65">
+        <v>6238979807</v>
+      </c>
+      <c t="inlineStr" r="E50">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G50">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H50">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I50">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K50">
+        <is>
+          <t xml:space="preserve">size is not okey</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="65">
+        <v>49</v>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C51">
+        <is>
+          <t xml:space="preserve">SHIHAB</t>
+        </is>
+      </c>
+      <c r="D51" s="65">
+        <v>9746525524</v>
+      </c>
+      <c t="inlineStr" r="E51">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F51">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G51">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H51">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I51">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K51">
+        <is>
+          <t xml:space="preserve">SIZE 46 SUIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="65">
+        <v>50</v>
+      </c>
+      <c t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C52">
         <is>
           <t xml:space="preserve">shabir</t>
         </is>
       </c>
-      <c r="D42" s="65">
+      <c r="D52" s="65">
         <v>9747513404</v>
       </c>
-      <c t="inlineStr" r="E42">
+      <c t="inlineStr" r="E52">
         <is>
           <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F42">
+      <c t="inlineStr" r="F52">
         <is>
           <t xml:space="preserve">NIYAS BINU NASAR K</t>
         </is>
       </c>
-      <c t="inlineStr" r="G42">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H42">
+      <c t="inlineStr" r="G52">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H52">
         <is>
           <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
-      <c t="inlineStr" r="I42">
+      <c t="inlineStr" r="I52">
         <is>
           <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
-      <c t="inlineStr" r="J42">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K42">
+      <c t="inlineStr" r="J52">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K52">
         <is>
           <t xml:space="preserve">WILL COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="65">
+        <v>51</v>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C53">
+        <is>
+          <t xml:space="preserve">Suhair</t>
+        </is>
+      </c>
+      <c r="D53" s="65">
+        <v>9633984431</v>
+      </c>
+      <c t="inlineStr" r="E53">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F53">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G53">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H53">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I53">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J53">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c r="K53" s="65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="65">
+        <v>52</v>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C54">
+        <is>
+          <t xml:space="preserve">habeeb</t>
+        </is>
+      </c>
+      <c r="D54" s="65">
+        <v>7306414799</v>
+      </c>
+      <c t="inlineStr" r="E54">
+        <is>
+          <t xml:space="preserve">30-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G54">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H54">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I54">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K54">
+        <is>
+          <t xml:space="preserve">non prieum coat price to high</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="65">
+        <v>53</v>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C55">
+        <is>
+          <t xml:space="preserve">SUNITHA</t>
+        </is>
+      </c>
+      <c r="D55" s="65">
+        <v>9745985800</v>
+      </c>
+      <c t="inlineStr" r="E55">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F55">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G55">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H55">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I55">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K55">
+        <is>
+          <t xml:space="preserve">WILL COME</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="65">
+        <v>54</v>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C56">
+        <is>
+          <t xml:space="preserve">SALU</t>
+        </is>
+      </c>
+      <c r="D56" s="65">
+        <v>7034817693</v>
+      </c>
+      <c t="inlineStr" r="E56">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F56">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G56">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H56">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I56">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K56">
+        <is>
+          <t xml:space="preserve">BOOKED BLACK SUIT SILVER COLOUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="65">
+        <v>55</v>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C57">
+        <is>
+          <t xml:space="preserve">Shafeeq</t>
+        </is>
+      </c>
+      <c r="D57" s="65">
+        <v>9544716855</v>
+      </c>
+      <c t="inlineStr" r="E57">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F57">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G57">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H57">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I57">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K57">
+        <is>
+          <t xml:space="preserve">confirmation today</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="65">
+        <v>56</v>
+      </c>
+      <c t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">ASHIQ</t>
+        </is>
+      </c>
+      <c r="D58" s="65">
+        <v>8138822048</v>
+      </c>
+      <c t="inlineStr" r="E58">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F58">
+        <is>
+          <t xml:space="preserve">Salmanul Faris V K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G58">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H58">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I58">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K58">
+        <is>
+          <t xml:space="preserve">BLACK BANGALA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="65">
+        <v>57</v>
+      </c>
+      <c t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C59">
+        <is>
+          <t xml:space="preserve">Test 1</t>
+        </is>
+      </c>
+      <c r="D59" s="65">
+        <v>9999999999</v>
+      </c>
+      <c t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">30-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G59">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J59">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K59">
+        <is>
+          <t xml:space="preserve">CM test</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="65">
+        <v>58</v>
+      </c>
+      <c t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C60">
+        <is>
+          <t xml:space="preserve">Farzin</t>
+        </is>
+      </c>
+      <c r="D60" s="65">
+        <v>9778311897</v>
+      </c>
+      <c t="inlineStr" r="E60">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F60">
+        <is>
+          <t xml:space="preserve">MOHAMMED SANJU K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G60">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H60">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I60">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K60">
+        <is>
+          <t xml:space="preserve">Non premium suits off white</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="65">
+        <v>59</v>
+      </c>
+      <c t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C61">
+        <is>
+          <t xml:space="preserve">vivek</t>
+        </is>
+      </c>
+      <c r="D61" s="65">
+        <v>9947293500</v>
+      </c>
+      <c t="inlineStr" r="E61">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G61">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H61">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I61">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J61">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K61">
+        <is>
+          <t xml:space="preserve">Confirmation tomorow morning</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="65">
+        <v>60</v>
+      </c>
+      <c t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C62">
+        <is>
+          <t xml:space="preserve">nisam</t>
+        </is>
+      </c>
+      <c r="D62" s="65">
+        <v>8281756053</v>
+      </c>
+      <c t="inlineStr" r="E62">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G62">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H62">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I62">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J62">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K62">
+        <is>
+          <t xml:space="preserve">kurtha engagment</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="65">
+        <v>61</v>
+      </c>
+      <c t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C63">
+        <is>
+          <t xml:space="preserve">aftah</t>
+        </is>
+      </c>
+      <c r="D63" s="65">
+        <v>9400550962</v>
+      </c>
+      <c t="inlineStr" r="E63">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F63">
+        <is>
+          <t xml:space="preserve">ABDUL ADIL T P</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G63">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H63">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I63">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J63">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K63">
+        <is>
+          <t xml:space="preserve">required size not available at the store .</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="65">
+        <v>62</v>
+      </c>
+      <c t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C64">
+        <is>
+          <t xml:space="preserve">ajumal</t>
+        </is>
+      </c>
+      <c r="D64" s="65">
+        <v>9280799985</v>
+      </c>
+      <c t="inlineStr" r="E64">
+        <is>
+          <t xml:space="preserve">07-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F64">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G64">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H64">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I64">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J64">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K64">
+        <is>
+          <t xml:space="preserve">indowestern 5k</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="65">
+        <v>63</v>
+      </c>
+      <c t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C65">
+        <is>
+          <t xml:space="preserve">Mubashir</t>
+        </is>
+      </c>
+      <c r="D65" s="65">
+        <v>8592066232</v>
+      </c>
+      <c t="inlineStr" r="E65">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F65">
+        <is>
+          <t xml:space="preserve">SALMAN MOHAMMED V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G65">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H65">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J65">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K65">
+        <is>
+          <t xml:space="preserve">ultra lx black embro BG</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="65">
+        <v>64</v>
+      </c>
+      <c t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C66">
+        <is>
+          <t xml:space="preserve">SALMAN</t>
+        </is>
+      </c>
+      <c r="D66" s="65">
+        <v>8111977222</v>
+      </c>
+      <c t="inlineStr" r="E66">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F66">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G66">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H66">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I66">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J66">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K66">
+        <is>
+          <t xml:space="preserve">PORTDUCT6 IS NOT AVALABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="65">
+        <v>65</v>
+      </c>
+      <c t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C67">
+        <is>
+          <t xml:space="preserve">shinad</t>
+        </is>
+      </c>
+      <c r="D67" s="65">
+        <v>9061231620</v>
+      </c>
+      <c t="inlineStr" r="E67">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F67">
+        <is>
+          <t xml:space="preserve">Shahil shan v</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G67">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H67">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I67">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J67">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K67">
+        <is>
+          <t xml:space="preserve">kurtha print type. customer will come after his friend free</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="65">
+        <v>66</v>
+      </c>
+      <c t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C68">
+        <is>
+          <t xml:space="preserve">navas</t>
+        </is>
+      </c>
+      <c r="D68" s="65">
+        <v>9207455097</v>
+      </c>
+      <c t="inlineStr" r="E68">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F68">
+        <is>
+          <t xml:space="preserve">JASIMSHA K.H</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G68">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H68">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I68">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J68">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K68">
+        <is>
+          <t xml:space="preserve">armani kurtha is not available in this store</t>
         </is>
       </c>
     </row>
